--- a/PLB duct details habwise.xlsx
+++ b/PLB duct details habwise.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$E$32</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
   <si>
     <t xml:space="preserve">Habitation </t>
   </si>
@@ -154,13 +157,22 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>co-ordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>MOMINPET PHASE 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +199,12 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -254,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -287,6 +305,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,410 +965,509 @@
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B4" s="4">
         <v>2096</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B5" s="4">
         <v>2887</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B6" s="4">
         <v>6092</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B7" s="4">
         <v>3261</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B8" s="4">
         <v>3430</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B9" s="4">
         <v>3133</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B10" s="4">
         <v>3261</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B11" s="4">
         <v>2310</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B12" s="4">
         <v>326</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B13" s="4">
         <v>1657</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="C13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B14" s="4">
         <v>694</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B15" s="4">
         <v>1872</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B16" s="4">
         <v>3488</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B17" s="4">
         <v>839</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B18" s="4">
         <v>1586</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B19" s="4">
         <v>5266</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="C19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B20" s="4">
         <v>671</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B21" s="4">
         <v>5321</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="C21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B22" s="4">
         <v>3131</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="C22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B23" s="4">
         <v>1102</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="C23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B24" s="4">
         <v>1059</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="C24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B25" s="4">
         <v>1637</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="C25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B26" s="4">
         <v>6027</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="C26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B27" s="4">
         <v>3519</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="C27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B28" s="4">
         <v>260</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="C28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B29" s="4">
         <v>2631</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="C29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B30" s="8">
         <v>14577</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="C30" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="5">
-        <f>SUM(B2:B28)</f>
+      <c r="B31" s="5">
+        <f>SUM(B4:B30)</f>
         <v>82133</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/PLB duct details habwise.xlsx
+++ b/PLB duct details habwise.xlsx
@@ -308,9 +308,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,6 +315,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,14 +969,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1008,7 +1008,7 @@
       <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       <c r="D6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       <c r="D18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       <c r="E27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">

--- a/PLB duct details habwise.xlsx
+++ b/PLB duct details habwise.xlsx
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,12 +199,6 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -272,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -308,15 +302,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -955,7 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -969,14 +960,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1008,8 +999,8 @@
       <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>45</v>
+      <c r="E4" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,8 +1016,8 @@
       <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>45</v>
+      <c r="E5" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1042,8 +1033,8 @@
       <c r="D6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>45</v>
+      <c r="E6" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,7 +1050,7 @@
       <c r="D7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1076,8 +1067,8 @@
       <c r="D8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>45</v>
+      <c r="E8" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1093,7 +1084,7 @@
       <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1110,8 +1101,8 @@
       <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>45</v>
+      <c r="E10" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1127,8 +1118,8 @@
       <c r="D11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>45</v>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1144,7 +1135,7 @@
       <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1161,7 +1152,7 @@
       <c r="D13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1178,8 +1169,8 @@
       <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
+      <c r="E14" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,8 +1186,8 @@
       <c r="D15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
+      <c r="E15" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1212,8 +1203,8 @@
       <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>45</v>
+      <c r="E16" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1229,7 +1220,7 @@
       <c r="D17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1246,8 +1237,8 @@
       <c r="D18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>45</v>
+      <c r="E18" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1257,14 +1248,14 @@
       <c r="B19" s="4">
         <v>5266</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>45</v>
+      <c r="E19" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1280,7 +1271,7 @@
       <c r="D20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1291,14 +1282,14 @@
       <c r="B21" s="4">
         <v>5321</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>45</v>
+      <c r="E21" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1308,14 +1299,14 @@
       <c r="B22" s="4">
         <v>3131</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>45</v>
+      <c r="E22" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1331,7 +1322,7 @@
       <c r="D23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1348,7 +1339,7 @@
       <c r="D24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1365,8 +1356,8 @@
       <c r="D25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>45</v>
+      <c r="E25" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1382,8 +1373,8 @@
       <c r="D26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>45</v>
+      <c r="E26" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1399,10 +1390,10 @@
       <c r="D27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
@@ -1417,8 +1408,8 @@
       <c r="D28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>45</v>
+      <c r="E28" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1434,8 +1425,8 @@
       <c r="D29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>45</v>
+      <c r="E29" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1446,12 +1437,12 @@
         <v>14577</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="15" t="s">
         <v>44</v>
       </c>
     </row>

--- a/PLB duct details habwise.xlsx
+++ b/PLB duct details habwise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20115" windowHeight="8775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20115" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -303,11 +303,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,14 +960,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -999,7 +999,7 @@
       <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       <c r="D6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       <c r="D7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       <c r="D8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       <c r="D11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       <c r="D13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       <c r="D15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       <c r="D17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       <c r="D18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       <c r="D20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       <c r="D21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       <c r="D22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       <c r="D23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       <c r="D24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="D25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       <c r="D26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       <c r="D27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G27" s="13"/>
@@ -1408,7 +1408,7 @@
       <c r="D28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       <c r="D29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       <c r="D30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>44</v>
       </c>
     </row>

--- a/PLB duct details habwise.xlsx
+++ b/PLB duct details habwise.xlsx
@@ -201,7 +201,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -308,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -614,7 +623,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +661,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="16">
         <v>2096</v>
       </c>
     </row>
@@ -660,7 +669,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="16">
         <v>2887</v>
       </c>
     </row>
@@ -668,7 +677,7 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="16">
         <v>6092</v>
       </c>
     </row>
@@ -676,7 +685,7 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="16">
         <v>3261</v>
       </c>
     </row>
@@ -684,7 +693,7 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="16">
         <v>3430</v>
       </c>
     </row>

--- a/PLB duct details habwise.xlsx
+++ b/PLB duct details habwise.xlsx
@@ -272,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -312,11 +312,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -622,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +664,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>2096</v>
       </c>
     </row>
@@ -669,7 +672,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>2887</v>
       </c>
     </row>
@@ -677,7 +680,7 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>6092</v>
       </c>
     </row>
@@ -685,7 +688,7 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>3261</v>
       </c>
     </row>
@@ -693,7 +696,7 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>3430</v>
       </c>
     </row>
@@ -701,7 +704,7 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="15">
         <v>3133</v>
       </c>
     </row>
@@ -741,7 +744,7 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="15">
         <v>1657</v>
       </c>
     </row>
@@ -749,7 +752,7 @@
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="15">
         <v>694</v>
       </c>
     </row>
@@ -805,7 +808,7 @@
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="15">
         <v>5266</v>
       </c>
     </row>
@@ -813,7 +816,7 @@
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="15">
         <v>671</v>
       </c>
     </row>
@@ -829,7 +832,7 @@
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="15">
         <v>3131</v>
       </c>
     </row>
@@ -877,7 +880,7 @@
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="15">
         <v>1059</v>
       </c>
     </row>
@@ -917,7 +920,7 @@
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="15">
         <v>260</v>
       </c>
     </row>
@@ -933,7 +936,7 @@
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="17">
         <v>14577</v>
       </c>
     </row>
@@ -969,14 +972,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">

--- a/PLB duct details habwise.xlsx
+++ b/PLB duct details habwise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20115" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20115" windowHeight="8775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,10 +315,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +712,7 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="15">
         <v>3261</v>
       </c>
     </row>
@@ -728,7 +728,7 @@
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="15">
         <v>2310</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>14577</v>
       </c>
     </row>
@@ -958,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -972,14 +972,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
